--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Tgfb2</t>
   </si>
   <si>
     <t>Tgfbr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H2">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I2">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J2">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N2">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O2">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P2">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q2">
-        <v>24.53551037448</v>
+        <v>38.10805708869334</v>
       </c>
       <c r="R2">
-        <v>220.81959337032</v>
+        <v>342.97251379824</v>
       </c>
       <c r="S2">
-        <v>0.006022458752322453</v>
+        <v>0.004753204373502969</v>
       </c>
       <c r="T2">
-        <v>0.006022458752322454</v>
+        <v>0.004753204373502969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H3">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I3">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J3">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>93.234415</v>
       </c>
       <c r="O3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P3">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q3">
-        <v>68.11091012761</v>
+        <v>79.68911200121111</v>
       </c>
       <c r="R3">
-        <v>612.9981911484899</v>
+        <v>717.2020080109</v>
       </c>
       <c r="S3">
-        <v>0.01671842731477586</v>
+        <v>0.0099395945272977</v>
       </c>
       <c r="T3">
-        <v>0.01671842731477586</v>
+        <v>0.009939594527297702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H4">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I4">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J4">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N4">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P4">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q4">
-        <v>19.33472559571</v>
+        <v>46.41600790764889</v>
       </c>
       <c r="R4">
-        <v>174.01253036139</v>
+        <v>417.74407116884</v>
       </c>
       <c r="S4">
-        <v>0.004745879976018413</v>
+        <v>0.005789452117007678</v>
       </c>
       <c r="T4">
-        <v>0.004745879976018413</v>
+        <v>0.00578945211700768</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.191602</v>
+        <v>2.564153333333334</v>
       </c>
       <c r="H5">
-        <v>6.574806</v>
+        <v>7.692460000000001</v>
       </c>
       <c r="I5">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="J5">
-        <v>0.07674610985252207</v>
+        <v>0.05249149542937438</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N5">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O5">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P5">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q5">
-        <v>200.682676425084</v>
+        <v>256.6290059400355</v>
       </c>
       <c r="R5">
-        <v>1806.144087825756</v>
+        <v>2309.66105346032</v>
       </c>
       <c r="S5">
-        <v>0.04925934380940535</v>
+        <v>0.03200924441156603</v>
       </c>
       <c r="T5">
-        <v>0.04925934380940535</v>
+        <v>0.03200924441156604</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I6">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J6">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N6">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O6">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P6">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q6">
-        <v>185.7829105583733</v>
+        <v>246.6295834404746</v>
       </c>
       <c r="R6">
-        <v>1672.04619502536</v>
+        <v>2219.666250964272</v>
       </c>
       <c r="S6">
-        <v>0.04560206405520627</v>
+        <v>0.03076202000842219</v>
       </c>
       <c r="T6">
-        <v>0.04560206405520627</v>
+        <v>0.03076202000842219</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I7">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J7">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>93.234415</v>
       </c>
       <c r="O7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P7">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q7">
         <v>515.7358836704188</v>
@@ -883,10 +883,10 @@
         <v>4641.62295303377</v>
       </c>
       <c r="S7">
-        <v>0.1265919493457244</v>
+        <v>0.06432755288807372</v>
       </c>
       <c r="T7">
-        <v>0.1265919493457244</v>
+        <v>0.06432755288807372</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I8">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J8">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N8">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P8">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q8">
-        <v>146.4025627017189</v>
+        <v>300.3973849569391</v>
       </c>
       <c r="R8">
-        <v>1317.62306431547</v>
+        <v>2703.576464612452</v>
       </c>
       <c r="S8">
-        <v>0.03593580820810989</v>
+        <v>0.0374684587210252</v>
       </c>
       <c r="T8">
-        <v>0.03593580820810988</v>
+        <v>0.0374684587210252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>49.78443799999999</v>
       </c>
       <c r="I9">
-        <v>0.5811216251390648</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="J9">
-        <v>0.5811216251390647</v>
+        <v>0.3397170215679993</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.56894200000001</v>
+        <v>100.0833306666667</v>
       </c>
       <c r="N9">
-        <v>274.706826</v>
+        <v>300.249992</v>
       </c>
       <c r="O9">
-        <v>0.6418480872068144</v>
+        <v>0.609798675951868</v>
       </c>
       <c r="P9">
-        <v>0.6418480872068145</v>
+        <v>0.6097986759518681</v>
       </c>
       <c r="Q9">
-        <v>1519.569438574865</v>
+        <v>1660.864123469388</v>
       </c>
       <c r="R9">
-        <v>13676.12494717379</v>
+        <v>14947.77711122449</v>
       </c>
       <c r="S9">
-        <v>0.3729918035300242</v>
+        <v>0.2071589899504782</v>
       </c>
       <c r="T9">
-        <v>0.3729918035300242</v>
+        <v>0.2071589899504782</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H10">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I10">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J10">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.19524</v>
+        <v>14.861848</v>
       </c>
       <c r="N10">
-        <v>33.58572</v>
+        <v>44.585544</v>
       </c>
       <c r="O10">
-        <v>0.07847249539938134</v>
+        <v>0.09055189482833943</v>
       </c>
       <c r="P10">
-        <v>0.07847249539938135</v>
+        <v>0.09055189482833945</v>
       </c>
       <c r="Q10">
-        <v>109.3787001541733</v>
+        <v>440.868784693168</v>
       </c>
       <c r="R10">
-        <v>984.4083013875601</v>
+        <v>3967.819062238512</v>
       </c>
       <c r="S10">
-        <v>0.02684797259185261</v>
+        <v>0.05498940632599849</v>
       </c>
       <c r="T10">
-        <v>0.02684797259185262</v>
+        <v>0.0549894063259985</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H11">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I11">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J11">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>93.234415</v>
       </c>
       <c r="O11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="P11">
-        <v>0.2178407133195748</v>
+        <v>0.1893562842131466</v>
       </c>
       <c r="Q11">
-        <v>303.6367575962272</v>
+        <v>921.9163779324633</v>
       </c>
       <c r="R11">
-        <v>2732.730818366045</v>
+        <v>8297.247401392169</v>
       </c>
       <c r="S11">
-        <v>0.07453033665907449</v>
+        <v>0.1149903011164733</v>
       </c>
       <c r="T11">
-        <v>0.07453033665907452</v>
+        <v>0.1149903011164733</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.770107666666666</v>
+        <v>29.664466</v>
       </c>
       <c r="H12">
-        <v>29.310323</v>
+        <v>88.993398</v>
       </c>
       <c r="I12">
-        <v>0.342132265008413</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="J12">
-        <v>0.3421322650084131</v>
+        <v>0.6072695268303631</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.822188333333335</v>
+        <v>18.10188466666667</v>
       </c>
       <c r="N12">
-        <v>26.466565</v>
+        <v>54.305654</v>
       </c>
       <c r="O12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="P12">
-        <v>0.06183870407422939</v>
+        <v>0.1102931450066459</v>
       </c>
       <c r="Q12">
-        <v>86.19372987227723</v>
+        <v>536.9827422302546</v>
       </c>
       <c r="R12">
-        <v>775.7435688504951</v>
+        <v>4832.844680072292</v>
       </c>
       <c r="S12">
-        <v>0.02115701589010108</v>
+        <v>0.06697766598081847</v>
       </c>
       <c r="T12">
-        <v>0.02115701589010108</v>
+        <v>0.06697766598081849</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.664466</v>
+      </c>
+      <c r="H13">
+        <v>88.993398</v>
+      </c>
+      <c r="I13">
+        <v>0.6072695268303631</v>
+      </c>
+      <c r="J13">
+        <v>0.6072695268303631</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>100.0833306666667</v>
+      </c>
+      <c r="N13">
+        <v>300.249992</v>
+      </c>
+      <c r="O13">
+        <v>0.609798675951868</v>
+      </c>
+      <c r="P13">
+        <v>0.6097986759518681</v>
+      </c>
+      <c r="Q13">
+        <v>2968.91855972809</v>
+      </c>
+      <c r="R13">
+        <v>26720.26703755281</v>
+      </c>
+      <c r="S13">
+        <v>0.3703121534070727</v>
+      </c>
+      <c r="T13">
+        <v>0.3703121534070729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>9.770107666666666</v>
-      </c>
-      <c r="H13">
-        <v>29.310323</v>
-      </c>
-      <c r="I13">
-        <v>0.342132265008413</v>
-      </c>
-      <c r="J13">
-        <v>0.3421322650084131</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>91.56894200000001</v>
-      </c>
-      <c r="N13">
-        <v>274.706826</v>
-      </c>
-      <c r="O13">
-        <v>0.6418480872068144</v>
-      </c>
-      <c r="P13">
-        <v>0.6418480872068145</v>
-      </c>
-      <c r="Q13">
-        <v>894.6384222627554</v>
-      </c>
-      <c r="R13">
-        <v>8051.745800364799</v>
-      </c>
-      <c r="S13">
-        <v>0.2195969398673848</v>
-      </c>
-      <c r="T13">
-        <v>0.2195969398673849</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.025497</v>
+      </c>
+      <c r="H14">
+        <v>0.076491</v>
+      </c>
+      <c r="I14">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J14">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>14.861848</v>
+      </c>
+      <c r="N14">
+        <v>44.585544</v>
+      </c>
+      <c r="O14">
+        <v>0.09055189482833943</v>
+      </c>
+      <c r="P14">
+        <v>0.09055189482833945</v>
+      </c>
+      <c r="Q14">
+        <v>0.3789325384560001</v>
+      </c>
+      <c r="R14">
+        <v>3.410392846104</v>
+      </c>
+      <c r="S14">
+        <v>4.72641204157858E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.72641204157858E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.025497</v>
+      </c>
+      <c r="H15">
+        <v>0.076491</v>
+      </c>
+      <c r="I15">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J15">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.07813833333333</v>
+      </c>
+      <c r="N15">
+        <v>93.234415</v>
+      </c>
+      <c r="O15">
+        <v>0.1893562842131466</v>
+      </c>
+      <c r="P15">
+        <v>0.1893562842131466</v>
+      </c>
+      <c r="Q15">
+        <v>0.792399293085</v>
+      </c>
+      <c r="R15">
+        <v>7.131593637765</v>
+      </c>
+      <c r="S15">
+        <v>9.88356813018889E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.883568130188891E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.025497</v>
+      </c>
+      <c r="H16">
+        <v>0.076491</v>
+      </c>
+      <c r="I16">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J16">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.10188466666667</v>
+      </c>
+      <c r="N16">
+        <v>54.305654</v>
+      </c>
+      <c r="O16">
+        <v>0.1102931450066459</v>
+      </c>
+      <c r="P16">
+        <v>0.1102931450066459</v>
+      </c>
+      <c r="Q16">
+        <v>0.4615437533460001</v>
+      </c>
+      <c r="R16">
+        <v>4.153893780114</v>
+      </c>
+      <c r="S16">
+        <v>5.756818779454613E-05</v>
+      </c>
+      <c r="T16">
+        <v>5.756818779454614E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.025497</v>
+      </c>
+      <c r="H17">
+        <v>0.076491</v>
+      </c>
+      <c r="I17">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="J17">
+        <v>0.000521956172263265</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>100.0833306666667</v>
+      </c>
+      <c r="N17">
+        <v>300.249992</v>
+      </c>
+      <c r="O17">
+        <v>0.609798675951868</v>
+      </c>
+      <c r="P17">
+        <v>0.6097986759518681</v>
+      </c>
+      <c r="Q17">
+        <v>2.551824682008</v>
+      </c>
+      <c r="R17">
+        <v>22.966422138072</v>
+      </c>
+      <c r="S17">
+        <v>0.0003182881827510441</v>
+      </c>
+      <c r="T17">
+        <v>0.0003182881827510442</v>
       </c>
     </row>
   </sheetData>
